--- a/trunk/documentation/3 analysis/use-case/system-service-function-user-role-channel-location-mappings.xlsx
+++ b/trunk/documentation/3 analysis/use-case/system-service-function-user-role-channel-location-mappings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3450" windowWidth="24795" windowHeight="12330"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="23">
   <si>
     <t>Anonymous/User/Manager/Admin/…</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,56 +48,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Access Channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch/Web Browser/Tablet/Smart Phone/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Browser/Tablet/Smart Phone/…</t>
+  </si>
+  <si>
+    <t>Batch/Web/…</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,15 +171,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -205,35 +202,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,22 +221,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,58 +552,60 @@
     <col min="9" max="9" width="5.375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.75" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="12" max="12" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -646,13 +617,16 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
@@ -669,13 +643,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
@@ -692,13 +669,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
@@ -715,13 +695,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
@@ -738,13 +721,16 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
@@ -761,13 +747,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
@@ -784,13 +773,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
@@ -807,13 +799,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
@@ -830,13 +825,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
@@ -853,13 +851,16 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
@@ -876,13 +877,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
@@ -899,13 +903,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
@@ -922,13 +929,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
@@ -945,13 +955,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2"/>
@@ -968,13 +981,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="2"/>
@@ -991,13 +1007,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="2"/>
@@ -1014,13 +1033,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="2"/>
@@ -1037,13 +1059,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="2"/>
@@ -1060,13 +1085,16 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="2"/>
@@ -1083,9 +1111,12 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1093,7 +1124,7 @@
   <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
